--- a/Semester 1/Discrete Wiskunde/excel/Grafen/08.xlsx
+++ b/Semester 1/Discrete Wiskunde/excel/Grafen/08.xlsx
@@ -15,13 +15,13 @@
     <sheet name="Man initiatief" sheetId="1" r:id="rId1"/>
     <sheet name="Vrouw initiatief" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
   <fileRecoveryPr autoRecover="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="58">
   <si>
     <t>Annelien</t>
   </si>
@@ -287,13 +287,40 @@
     </r>
   </si>
   <si>
-    <t>TODO:controlematrix</t>
+    <t>CONTROLEMATRIX</t>
+  </si>
+  <si>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>+2</t>
+  </si>
+  <si>
+    <t>+1</t>
+  </si>
+  <si>
+    <t>+6</t>
+  </si>
+  <si>
+    <t>Resultaat</t>
+  </si>
+  <si>
+    <t>todo vrouw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="\+0;\-0;0"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -385,6 +412,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -507,9 +540,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -524,9 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,9 +572,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,14 +600,93 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -917,81 +1020,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V34"/>
+  <dimension ref="A1:AL51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13:O13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="22" t="s">
+      <c r="C1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>8</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="11" t="s">
+      <c r="O1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4">
@@ -1003,10 +1108,10 @@
       <c r="D2" s="2">
         <v>8</v>
       </c>
-      <c r="E2" s="14">
-        <v>1</v>
-      </c>
-      <c r="F2" s="30">
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="27">
         <v>2</v>
       </c>
       <c r="G2" s="2">
@@ -1015,13 +1120,13 @@
       <c r="H2" s="2">
         <v>7</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="30">
         <v>3</v>
       </c>
       <c r="J2" s="2">
         <v>9</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="N2" s="4">
@@ -1033,10 +1138,10 @@
       <c r="P2" s="2">
         <v>8</v>
       </c>
-      <c r="Q2" s="29">
-        <v>3</v>
-      </c>
-      <c r="R2" s="29">
+      <c r="Q2" s="26">
+        <v>3</v>
+      </c>
+      <c r="R2" s="26">
         <v>8</v>
       </c>
       <c r="S2" s="2">
@@ -1045,7 +1150,7 @@
       <c r="T2" s="2">
         <v>3</v>
       </c>
-      <c r="U2" s="14">
+      <c r="U2" s="13">
         <v>6</v>
       </c>
       <c r="V2" s="2">
@@ -1053,16 +1158,16 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17">
-        <v>1</v>
-      </c>
-      <c r="C3" s="25">
-        <v>2</v>
-      </c>
-      <c r="D3" s="28">
+      <c r="B3" s="15">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22">
+        <v>2</v>
+      </c>
+      <c r="D3" s="25">
         <v>3</v>
       </c>
       <c r="E3" s="1">
@@ -1083,16 +1188,16 @@
       <c r="J3" s="1">
         <v>6</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="32">
+      <c r="N3" s="29">
         <v>7</v>
       </c>
       <c r="O3" s="1">
         <v>6</v>
       </c>
-      <c r="P3" s="16">
+      <c r="P3" s="14">
         <v>1</v>
       </c>
       <c r="Q3" s="1">
@@ -1115,7 +1220,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="6">
@@ -1127,7 +1232,7 @@
       <c r="D4" s="1">
         <v>7</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="1">
@@ -1136,7 +1241,7 @@
       <c r="G4" s="1">
         <v>5</v>
       </c>
-      <c r="H4" s="25">
+      <c r="H4" s="22">
         <v>2</v>
       </c>
       <c r="I4" s="1">
@@ -1145,7 +1250,7 @@
       <c r="J4" s="1">
         <v>8</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="N4" s="6">
@@ -1166,7 +1271,7 @@
       <c r="S4" s="1">
         <v>7</v>
       </c>
-      <c r="T4" s="16">
+      <c r="T4" s="14">
         <v>5</v>
       </c>
       <c r="U4" s="1">
@@ -1177,16 +1282,16 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="28">
         <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>8</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="22">
         <v>2</v>
       </c>
       <c r="E5" s="1">
@@ -1195,7 +1300,7 @@
       <c r="F5" s="1">
         <v>9</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>1</v>
       </c>
       <c r="H5" s="1">
@@ -1204,13 +1309,13 @@
       <c r="I5" s="1">
         <v>6</v>
       </c>
-      <c r="J5" s="28">
-        <v>3</v>
-      </c>
-      <c r="M5" s="13" t="s">
+      <c r="J5" s="25">
+        <v>3</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="17">
+      <c r="N5" s="15">
         <v>6</v>
       </c>
       <c r="O5" s="1">
@@ -1225,7 +1330,7 @@
       <c r="R5" s="1">
         <v>5</v>
       </c>
-      <c r="S5" s="24">
+      <c r="S5" s="21">
         <v>6</v>
       </c>
       <c r="T5" s="1">
@@ -1234,21 +1339,21 @@
       <c r="U5" s="1">
         <v>8</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="23">
         <v>2</v>
       </c>
       <c r="C6" s="1">
         <v>7</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>1</v>
       </c>
       <c r="E6" s="1">
@@ -1257,7 +1362,7 @@
       <c r="F6" s="1">
         <v>6</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="25">
         <v>3</v>
       </c>
       <c r="H6" s="1">
@@ -1269,7 +1374,7 @@
       <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="6">
@@ -1278,7 +1383,7 @@
       <c r="O6" s="1">
         <v>9</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="21">
         <v>5</v>
       </c>
       <c r="Q6" s="1">
@@ -1287,7 +1392,7 @@
       <c r="R6" s="1">
         <v>7</v>
       </c>
-      <c r="S6" s="16">
+      <c r="S6" s="14">
         <v>4</v>
       </c>
       <c r="T6" s="1">
@@ -1296,18 +1401,18 @@
       <c r="U6" s="1">
         <v>4</v>
       </c>
-      <c r="V6" s="24">
+      <c r="V6" s="21">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>1</v>
       </c>
       <c r="D7" s="1">
@@ -1331,13 +1436,13 @@
       <c r="J7" s="1">
         <v>4</v>
       </c>
-      <c r="M7" s="13" t="s">
+      <c r="M7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="N7" s="6">
         <v>9</v>
       </c>
-      <c r="O7" s="16">
+      <c r="O7" s="14">
         <v>4</v>
       </c>
       <c r="P7" s="1">
@@ -1363,7 +1468,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="6">
@@ -1372,13 +1477,13 @@
       <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>1</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="22">
         <v>2</v>
       </c>
       <c r="G8" s="1">
@@ -1393,7 +1498,7 @@
       <c r="J8" s="1">
         <v>6</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="N8" s="6">
@@ -1402,13 +1507,13 @@
       <c r="O8" s="1">
         <v>3</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="21">
         <v>4</v>
       </c>
       <c r="Q8" s="1">
         <v>7</v>
       </c>
-      <c r="R8" s="16">
+      <c r="R8" s="14">
         <v>3</v>
       </c>
       <c r="S8" s="1">
@@ -1425,19 +1530,19 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="6">
         <v>9</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="22">
         <v>2</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="25">
         <v>3</v>
       </c>
       <c r="F9" s="1">
@@ -1446,7 +1551,7 @@
       <c r="G9" s="1">
         <v>8</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="14">
         <v>1</v>
       </c>
       <c r="I9" s="1">
@@ -1455,7 +1560,8 @@
       <c r="J9" s="1">
         <v>7</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="K9" s="35"/>
+      <c r="M9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="N9" s="6">
@@ -1467,7 +1573,7 @@
       <c r="P9" s="1">
         <v>6</v>
       </c>
-      <c r="Q9" s="16">
+      <c r="Q9" s="14">
         <v>1</v>
       </c>
       <c r="R9" s="1">
@@ -1487,7 +1593,7 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="6">
@@ -1514,10 +1620,10 @@
       <c r="I10" s="1">
         <v>8</v>
       </c>
-      <c r="J10" s="16">
-        <v>1</v>
-      </c>
-      <c r="M10" s="13" t="s">
+      <c r="J10" s="14">
+        <v>1</v>
+      </c>
+      <c r="M10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="N10" s="6">
@@ -1544,7 +1650,7 @@
       <c r="U10" s="1">
         <v>7</v>
       </c>
-      <c r="V10" s="16">
+      <c r="V10" s="14">
         <v>1</v>
       </c>
     </row>
@@ -1552,172 +1658,235 @@
       <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="N13" s="34" t="s">
+      <c r="D13" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N13" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="34"/>
+      <c r="O13" s="50"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="34"/>
+      <c r="O14" s="50"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="23" t="s">
+      <c r="F15" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="N15" s="34" t="s">
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="N15" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="34"/>
+      <c r="O15" s="50"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="N16" s="34" t="s">
+      <c r="D16" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="N16" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="34"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="19" t="s">
+      <c r="O16" s="50"/>
+    </row>
+    <row r="17" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B17" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="34" t="s">
+      <c r="D17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="O17" s="34"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="19" t="s">
+      <c r="O17" s="50"/>
+    </row>
+    <row r="18" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B18" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="N18" s="34" t="s">
+      <c r="D18" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="O18" s="34"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="19" t="s">
+      <c r="O18" s="50"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
+      <c r="AK18" s="36"/>
+      <c r="AL18" s="36"/>
+    </row>
+    <row r="19" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B19" s="17" t="s">
         <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="34" t="s">
+      <c r="D19" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="N19" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="34"/>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="19" t="s">
+      <c r="O19" s="50"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="36"/>
+      <c r="AI19" s="36"/>
+      <c r="AJ19" s="36"/>
+      <c r="AK19" s="36"/>
+      <c r="AL19" s="36"/>
+    </row>
+    <row r="20" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B20" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="N20" s="34" t="s">
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="N20" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="O20" s="34"/>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="19" t="s">
+      <c r="O20" s="50"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="36"/>
+      <c r="AC20" s="36"/>
+      <c r="AD20" s="36"/>
+      <c r="AE20" s="36"/>
+      <c r="AF20" s="36"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="36"/>
+      <c r="AI20" s="36"/>
+      <c r="AJ20" s="36"/>
+      <c r="AK20" s="36"/>
+      <c r="AL20" s="36"/>
+    </row>
+    <row r="21" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B21" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="27" t="s">
+      <c r="F21" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="N21" s="34" t="s">
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="N21" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="O21" s="34"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="19" t="s">
+      <c r="O21" s="50"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
+      <c r="AK21" s="36"/>
+      <c r="AL21" s="36"/>
+    </row>
+    <row r="22" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B22" s="17" t="s">
         <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="s">
@@ -1726,15 +1895,30 @@
       <c r="F22" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="19" t="s">
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
+      <c r="AK22" s="36"/>
+      <c r="AL22" s="36"/>
+    </row>
+    <row r="23" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B23" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E23" t="s">
@@ -1743,45 +1927,90 @@
       <c r="F23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="19" t="s">
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
+      <c r="AK23" s="36"/>
+      <c r="AL23" s="36"/>
+    </row>
+    <row r="24" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="19" t="s">
+      <c r="D24" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="37"/>
+      <c r="AA24" s="37"/>
+      <c r="AB24" s="37"/>
+      <c r="AC24" s="37"/>
+      <c r="AD24" s="37"/>
+      <c r="AE24" s="37"/>
+      <c r="AF24" s="37"/>
+      <c r="AG24" s="37"/>
+      <c r="AH24" s="37"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+      <c r="AK24" s="36"/>
+      <c r="AL24" s="36"/>
+    </row>
+    <row r="25" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B25" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="X25" s="36"/>
+      <c r="Y25" s="36"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="36"/>
+      <c r="AJ25" s="36"/>
+      <c r="AK25" s="36"/>
+      <c r="AL25" s="36"/>
+    </row>
+    <row r="26" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B26" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E26" t="s">
@@ -1790,18 +2019,30 @@
       <c r="F26" t="s">
         <v>33</v>
       </c>
-      <c r="N26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="19" t="s">
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="36"/>
+      <c r="AJ26" s="36"/>
+      <c r="AK26" s="36"/>
+      <c r="AL26" s="36"/>
+    </row>
+    <row r="27" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B27" s="17" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>3</v>
       </c>
       <c r="E27" t="s">
@@ -1810,26 +2051,56 @@
       <c r="F27" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="19" t="s">
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="36"/>
+      <c r="AJ27" s="36"/>
+      <c r="AK27" s="36"/>
+      <c r="AL27" s="36"/>
+    </row>
+    <row r="28" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B28" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="19" t="s">
+      <c r="D28" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="36"/>
+      <c r="AJ28" s="36"/>
+      <c r="AK28" s="36"/>
+      <c r="AL28" s="36"/>
+    </row>
+    <row r="29" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B29" s="17" t="s">
         <v>17</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="18" t="s">
         <v>8</v>
       </c>
       <c r="E29" t="s">
@@ -1838,15 +2109,30 @@
       <c r="F29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="36"/>
+      <c r="AJ29" s="36"/>
+      <c r="AK29" s="36"/>
+      <c r="AL29" s="36"/>
+    </row>
+    <row r="30" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B30" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E30" t="s">
@@ -1855,15 +2141,30 @@
       <c r="F30" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="36"/>
+      <c r="AJ30" s="36"/>
+      <c r="AK30" s="36"/>
+      <c r="AL30" s="36"/>
+    </row>
+    <row r="31" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B31" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>1</v>
       </c>
       <c r="E31" t="s">
@@ -1872,15 +2173,30 @@
       <c r="F31" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
+      <c r="X31" s="36"/>
+      <c r="Y31" s="36"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="36"/>
+      <c r="AJ31" s="36"/>
+      <c r="AK31" s="36"/>
+      <c r="AL31" s="36"/>
+    </row>
+    <row r="32" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B32" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E32" t="s">
@@ -1889,15 +2205,30 @@
       <c r="F32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="36"/>
+      <c r="AJ32" s="36"/>
+      <c r="AK32" s="36"/>
+      <c r="AL32" s="36"/>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B33" s="17" t="s">
         <v>15</v>
       </c>
       <c r="C33" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="18" t="s">
         <v>4</v>
       </c>
       <c r="E33" t="s">
@@ -1906,33 +2237,645 @@
       <c r="F33" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="19" t="s">
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="36"/>
+      <c r="AJ33" s="36"/>
+      <c r="AK33" s="36"/>
+      <c r="AL33" s="36"/>
+    </row>
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="B34" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C34" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="20" t="s">
-        <v>7</v>
-      </c>
+      <c r="D34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="X34" s="36"/>
+      <c r="Y34" s="36"/>
+      <c r="Z34" s="36"/>
+      <c r="AA34" s="36"/>
+      <c r="AB34" s="36"/>
+      <c r="AC34" s="36"/>
+      <c r="AD34" s="36"/>
+      <c r="AE34" s="36"/>
+      <c r="AF34" s="36"/>
+      <c r="AG34" s="36"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="36"/>
+      <c r="AJ34" s="36"/>
+      <c r="AK34" s="36"/>
+      <c r="AL34" s="36"/>
+    </row>
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="X35" s="36"/>
+      <c r="Y35" s="36"/>
+      <c r="Z35" s="36"/>
+      <c r="AA35" s="36"/>
+      <c r="AB35" s="36"/>
+      <c r="AC35" s="36"/>
+      <c r="AD35" s="36"/>
+      <c r="AE35" s="36"/>
+      <c r="AF35" s="36"/>
+      <c r="AG35" s="36"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="36"/>
+      <c r="AJ35" s="36"/>
+      <c r="AK35" s="36"/>
+      <c r="AL35" s="36"/>
+    </row>
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="X36" s="36"/>
+      <c r="Y36" s="36"/>
+      <c r="Z36" s="36"/>
+      <c r="AA36" s="36"/>
+      <c r="AB36" s="36"/>
+      <c r="AC36" s="36"/>
+      <c r="AD36" s="36"/>
+      <c r="AE36" s="36"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="36"/>
+      <c r="AL36" s="36"/>
+    </row>
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+      <c r="AB37" s="36"/>
+      <c r="AC37" s="36"/>
+      <c r="AD37" s="36"/>
+      <c r="AE37" s="36"/>
+      <c r="AF37" s="36"/>
+      <c r="AG37" s="36"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="36"/>
+      <c r="AJ37" s="36"/>
+      <c r="AK37" s="36"/>
+      <c r="AL37" s="36"/>
+    </row>
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="X38" s="36"/>
+      <c r="Y38" s="36"/>
+      <c r="Z38" s="36"/>
+      <c r="AA38" s="36"/>
+      <c r="AB38" s="36"/>
+      <c r="AC38" s="36"/>
+      <c r="AD38" s="36"/>
+      <c r="AE38" s="36"/>
+      <c r="AF38" s="36"/>
+      <c r="AG38" s="36"/>
+      <c r="AH38" s="36"/>
+      <c r="AI38" s="36"/>
+      <c r="AJ38" s="36"/>
+      <c r="AK38" s="36"/>
+      <c r="AL38" s="36"/>
+    </row>
+    <row r="39" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="38"/>
+      <c r="H39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="10"/>
+      <c r="J39" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="K39" s="38"/>
+      <c r="L39" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="S39" s="38"/>
+      <c r="X39" s="36"/>
+      <c r="Y39" s="36"/>
+      <c r="Z39" s="36"/>
+      <c r="AA39" s="36"/>
+      <c r="AB39" s="36"/>
+      <c r="AC39" s="36"/>
+      <c r="AD39" s="36"/>
+      <c r="AE39" s="36"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="36"/>
+      <c r="AJ39" s="36"/>
+      <c r="AK39" s="36"/>
+      <c r="AL39" s="36"/>
+    </row>
+    <row r="40" spans="1:38" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E40" s="46"/>
+      <c r="F40" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="48"/>
+      <c r="H40" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" s="46"/>
+      <c r="J40" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="K40" s="48"/>
+      <c r="L40" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46">
+        <v>-1</v>
+      </c>
+      <c r="O40" s="46"/>
+      <c r="P40" s="46">
+        <v>-2</v>
+      </c>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="S40" s="43"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
+      <c r="AC40" s="36"/>
+      <c r="AD40" s="36"/>
+      <c r="AE40" s="36"/>
+      <c r="AF40" s="36"/>
+      <c r="AG40" s="36"/>
+      <c r="AH40" s="36"/>
+      <c r="AI40" s="36"/>
+      <c r="AJ40" s="36"/>
+      <c r="AK40" s="36"/>
+      <c r="AL40" s="36"/>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46">
+        <v>-2</v>
+      </c>
+      <c r="I41" s="46"/>
+      <c r="J41" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" s="46"/>
+      <c r="L41" s="46">
+        <v>-1</v>
+      </c>
+      <c r="M41" s="46"/>
+      <c r="N41" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="O41" s="46"/>
+      <c r="P41" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q41" s="46"/>
+      <c r="R41" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="S41" s="42"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="36"/>
+      <c r="Z41" s="36"/>
+      <c r="AA41" s="36"/>
+      <c r="AB41" s="36"/>
+      <c r="AC41" s="36"/>
+      <c r="AD41" s="36"/>
+      <c r="AE41" s="36"/>
+      <c r="AF41" s="36"/>
+      <c r="AG41" s="36"/>
+      <c r="AH41" s="36"/>
+      <c r="AI41" s="36"/>
+      <c r="AJ41" s="36"/>
+      <c r="AK41" s="36"/>
+      <c r="AL41" s="36"/>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="46">
+        <f>I4-H4</f>
+        <v>1</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46">
+        <f>D4-H4</f>
+        <v>5</v>
+      </c>
+      <c r="E42" s="46"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="46">
+        <f>B4-H4</f>
+        <v>2</v>
+      </c>
+      <c r="I42" s="46"/>
+      <c r="J42" s="46">
+        <f>G4-H4</f>
+        <v>3</v>
+      </c>
+      <c r="K42" s="46"/>
+      <c r="L42" s="46">
+        <f>C4-H4</f>
+        <v>4</v>
+      </c>
+      <c r="M42" s="46"/>
+      <c r="N42" s="46">
+        <f>F4-H4</f>
+        <v>7</v>
+      </c>
+      <c r="O42" s="46"/>
+      <c r="P42" s="46">
+        <f>E4-H4</f>
+        <v>-1</v>
+      </c>
+      <c r="Q42" s="46"/>
+      <c r="R42" s="46">
+        <f>J4-H4</f>
+        <v>6</v>
+      </c>
+      <c r="S42" s="42"/>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="46">
+        <f>I5-B5</f>
+        <v>2</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46">
+        <f>D5-B5</f>
+        <v>-2</v>
+      </c>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46">
+        <f>H5-B5</f>
+        <v>1</v>
+      </c>
+      <c r="G43" s="46"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="46">
+        <f>G5-B5</f>
+        <v>-3</v>
+      </c>
+      <c r="K43" s="46"/>
+      <c r="L43" s="46">
+        <f>C5-B5</f>
+        <v>4</v>
+      </c>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46">
+        <f>F5-B5</f>
+        <v>5</v>
+      </c>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46">
+        <f>E5-B5</f>
+        <v>3</v>
+      </c>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46">
+        <f>J5-B5</f>
+        <v>-1</v>
+      </c>
+      <c r="S43" s="42"/>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44" s="46">
+        <f>I6-G6</f>
+        <v>1</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="46">
+        <f>D6-G6</f>
+        <v>-2</v>
+      </c>
+      <c r="E44" s="46"/>
+      <c r="F44" s="46">
+        <f>H6-G6</f>
+        <v>5</v>
+      </c>
+      <c r="G44" s="46"/>
+      <c r="H44" s="46">
+        <f>B6-G6</f>
+        <v>-1</v>
+      </c>
+      <c r="I44" s="46"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="44"/>
+      <c r="L44" s="46">
+        <f>C6-G6</f>
+        <v>4</v>
+      </c>
+      <c r="M44" s="46"/>
+      <c r="N44" s="46">
+        <f>F6-G6</f>
+        <v>3</v>
+      </c>
+      <c r="O44" s="46"/>
+      <c r="P44" s="46">
+        <f>E6-G6</f>
+        <v>6</v>
+      </c>
+      <c r="Q44" s="46"/>
+      <c r="R44" s="46">
+        <f>J6-G6</f>
+        <v>2</v>
+      </c>
+      <c r="S44" s="42"/>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" s="46">
+        <f>I7-C7</f>
+        <v>1</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="46">
+        <f>D7-C7</f>
+        <v>6</v>
+      </c>
+      <c r="E45" s="46"/>
+      <c r="F45" s="46">
+        <f>H7-C7</f>
+        <v>2</v>
+      </c>
+      <c r="G45" s="46"/>
+      <c r="H45" s="46">
+        <f>B7-C7</f>
+        <v>5</v>
+      </c>
+      <c r="I45" s="46"/>
+      <c r="J45" s="46">
+        <f>G7-C7</f>
+        <v>4</v>
+      </c>
+      <c r="K45" s="46"/>
+      <c r="L45" s="44"/>
+      <c r="M45" s="44"/>
+      <c r="N45" s="46">
+        <f>F7-C7</f>
+        <v>7</v>
+      </c>
+      <c r="O45" s="46"/>
+      <c r="P45" s="46">
+        <f>E7-C7</f>
+        <v>8</v>
+      </c>
+      <c r="Q45" s="46"/>
+      <c r="R45" s="46">
+        <f>J7-C7</f>
+        <v>3</v>
+      </c>
+      <c r="S45" s="42"/>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="42">
+        <f>F8-I8</f>
+        <v>-2</v>
+      </c>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42">
+        <f>D8-F8</f>
+        <v>-1</v>
+      </c>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42">
+        <f>H8-F8</f>
+        <v>7</v>
+      </c>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42">
+        <f>B8-F8</f>
+        <v>6</v>
+      </c>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42">
+        <f>G8-F8</f>
+        <v>5</v>
+      </c>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42">
+        <f>C8-F8</f>
+        <v>3</v>
+      </c>
+      <c r="M46" s="42"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="42">
+        <f>E8-F8</f>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42">
+        <f>F8-J8</f>
+        <v>-4</v>
+      </c>
+      <c r="S46" s="42"/>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="42">
+        <f>I9-E9</f>
+        <v>3</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42">
+        <f>D9-E9</f>
+        <v>2</v>
+      </c>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42">
+        <f>H9-E9</f>
+        <v>-2</v>
+      </c>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42">
+        <f>B9-E9</f>
+        <v>6</v>
+      </c>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42">
+        <f>G9-E9</f>
+        <v>5</v>
+      </c>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42">
+        <f>C9-E9</f>
+        <v>-1</v>
+      </c>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42">
+        <f>F9-E9</f>
+        <v>1</v>
+      </c>
+      <c r="O47" s="42"/>
+      <c r="P47" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="42">
+        <f>J9-E9</f>
+        <v>4</v>
+      </c>
+      <c r="S47" s="42"/>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" s="42">
+        <f>I10-J10</f>
+        <v>7</v>
+      </c>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42">
+        <f>D10-J10</f>
+        <v>5</v>
+      </c>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42">
+        <f>H10-J10</f>
+        <v>6</v>
+      </c>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42">
+        <f>B10-J10</f>
+        <v>8</v>
+      </c>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42">
+        <f>G10-J10</f>
+        <v>2</v>
+      </c>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42">
+        <f>C10-J10</f>
+        <v>3</v>
+      </c>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42">
+        <f>F10-J10</f>
+        <v>4</v>
+      </c>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42">
+        <f>E10-J10</f>
+        <v>1</v>
+      </c>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B51" s="40"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="N21:O21"/>
+  <mergeCells count="2">
     <mergeCell ref="F15:H15"/>
     <mergeCell ref="F25:H25"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N18:O18"/>
   </mergeCells>
+  <conditionalFormatting sqref="B40:S48">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1954,61 +2897,61 @@
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="11" t="s">
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="11" t="s">
+      <c r="N1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2043,7 +2986,7 @@
       <c r="J2" s="2">
         <v>9</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="M2" s="4">
@@ -2105,7 +3048,7 @@
       <c r="J3" s="1">
         <v>4</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="M3" s="6">
@@ -2167,7 +3110,7 @@
       <c r="J4" s="1">
         <v>8</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="6">
@@ -2229,7 +3172,7 @@
       <c r="J5" s="1">
         <v>5</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="M5" s="6">
@@ -2291,7 +3234,7 @@
       <c r="J6" s="1">
         <v>7</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="M6" s="6">
@@ -2353,7 +3296,7 @@
       <c r="J7" s="1">
         <v>6</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="M7" s="6">
@@ -2415,7 +3358,7 @@
       <c r="J8" s="1">
         <v>3</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="M8" s="6">
@@ -2477,7 +3420,7 @@
       <c r="J9" s="1">
         <v>2</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="M9" s="6">
@@ -2539,7 +3482,7 @@
       <c r="J10" s="1">
         <v>1</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="M10" s="6">
@@ -2572,15 +3515,15 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
